--- a/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-60,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,03</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 15,25</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 25,97</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,59; 11,87</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-70,26%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,5%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 18,01</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 35,01</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; 14,14</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,62; -3,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,28; -1,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,82</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,69; -3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,87; -2,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,79</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>80,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>20,51; 100,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,71; 8,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 44,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; 38,17</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,78; 8,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 88,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,69; 68,03</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>44,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,46; 67,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,17; 74,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 24,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,77; 20,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 33,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; 31,3</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,92; 278,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,26; 283,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; 36,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,52; 27,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 55,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 50,49</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1235,17 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1273,17 +1273,17 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>-27,36; 0,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,61; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>-27,36; 0,0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,61; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>57,75</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>57,75</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,54</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,13; 100,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,34; 100,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 43,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 42,33</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,68%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,68%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,85%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,14; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,46; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 48,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 75,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,7; 73,39</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,39</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,71</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,77</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,82; 21,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,34; 11,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 24,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,92; -1,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 18,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,3; -4,19</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,92%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,76; 25,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,14; 15,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,76; 32,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,05; -2,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 24,65</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,68; -5,67</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-44,53</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,35</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,52; 6,81</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,29; 8,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,69; 33,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 30,24</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 22,11</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 19,2</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,5%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,42%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 9,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,98; 11,25</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,17; 49,57</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 47,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 29,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 26,25</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 21,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; 16,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 10,24</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 5,5</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 11,62</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 5,82</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 30,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 23,64</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 12,08</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 6,43</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 14,34</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 7,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,47; 30,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; 20,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; 16,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,63; 43,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,68; 28,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,04; 20,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,22</t>
+          <t>26,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 67,33</t>
+          <t>-28,11; 62,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 24,69</t>
+          <t>-15,22; 23,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 33,04</t>
+          <t>-6,56; 31,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 278,5</t>
+          <t>-35,31; 221,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 36,04</t>
+          <t>-16,31; 34,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 55,47</t>
+          <t>-7,24; 50,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 30,36</t>
+          <t>-58,52; 30,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,25</t>
+          <t>-100,0; 15,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 20,79</t>
+          <t>-12,61; 19,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 25,97</t>
+          <t>-9,01; 25,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 16,88</t>
+          <t>-17,9; 16,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 11,87</t>
+          <t>-25,37; 12,45</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 43,99</t>
+          <t>-59,63; 44,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 18,01</t>
+          <t>-100,0; 18,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 28,07</t>
+          <t>-12,75; 24,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 35,01</t>
+          <t>-9,04; 33,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 20,8</t>
+          <t>-18,23; 20,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 14,14</t>
+          <t>-26,5; 14,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,62; -3,46</t>
+          <t>-39,55; -1,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,94</t>
+          <t>0,0; 23,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -1,73</t>
+          <t>-30,84; -2,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,82</t>
+          <t>0,0; 13,09</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -3,43</t>
+          <t>-40,9; -2,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,7</t>
+          <t>0,0; 30,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -2,0</t>
+          <t>-32,01; -2,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,79</t>
+          <t>0,0; 15,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,18</t>
+          <t>0,0; 31,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 8,09</t>
+          <t>-37,15; 12,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 44,38</t>
+          <t>0,0; 47,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 38,17</t>
+          <t>-19,96; 36,9</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,48</t>
+          <t>0,0; 47,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 8,68</t>
+          <t>-40,56; 13,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 88,7</t>
+          <t>0,0; 92,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 68,03</t>
+          <t>-22,63; 65,89</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 62,83</t>
+          <t>-27,78; 62,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 74,37</t>
+          <t>16,15; 72,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 23,71</t>
+          <t>-16,21; 24,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 20,7</t>
+          <t>-16,66; 20,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 31,0</t>
+          <t>-4,31; 28,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 31,3</t>
+          <t>-5,74; 28,46</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 221,77</t>
+          <t>-32,64; 192,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,26; 283,22</t>
+          <t>19,2; 259,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 34,64</t>
+          <t>-17,56; 33,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 27,85</t>
+          <t>-18,65; 28,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 50,99</t>
+          <t>-5,21; 44,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 50,49</t>
+          <t>-6,7; 46,36</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 0,0</t>
+          <t>-25,68; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 0,0</t>
+          <t>-22,18; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 0,0</t>
+          <t>-25,68; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 0,0</t>
+          <t>-22,18; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>18,13; 100,0</t>
+          <t>18,34; 100,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,31</t>
+          <t>0,0; 37,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,48</t>
+          <t>0,0; 33,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,01; 43,08</t>
+          <t>7,98; 42,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>8,01; 42,33</t>
+          <t>7,95; 42,45</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,14; —</t>
+          <t>22,46; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,96</t>
+          <t>0,0; 60,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,11</t>
+          <t>0,0; 49,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,71; 75,67</t>
+          <t>8,68; 72,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,7; 73,39</t>
+          <t>8,64; 73,76</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 21,16</t>
+          <t>-61,62; 16,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 11,97</t>
+          <t>-45,4; 11,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,54; 24,78</t>
+          <t>4,52; 24,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-44,92; -1,82</t>
+          <t>-46,87; -3,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 18,9</t>
+          <t>-4,59; 18,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-38,3; -4,19</t>
+          <t>-39,68; -2,52</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-70,76; 25,85</t>
+          <t>-70,57; 19,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,14; 15,42</t>
+          <t>-49,98; 16,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,76; 32,94</t>
+          <t>4,74; 32,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-50,05; -2,36</t>
+          <t>-52,13; -4,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 24,65</t>
+          <t>-4,6; 23,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,68; -5,67</t>
+          <t>-43,53; -3,02</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-88,52; 6,81</t>
+          <t>-88,23; 5,33</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-72,29; 8,1</t>
+          <t>-71,99; 6,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>6,69; 33,15</t>
+          <t>6,89; 36,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 30,24</t>
+          <t>-0,67; 30,36</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 22,11</t>
+          <t>-5,58; 21,43</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 19,2</t>
+          <t>-11,47; 18,26</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 9,63</t>
+          <t>-100,0; 6,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 11,25</t>
+          <t>-82,16; 8,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>7,17; 49,57</t>
+          <t>7,4; 56,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 47,6</t>
+          <t>-0,48; 48,02</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 29,61</t>
+          <t>-5,42; 28,63</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 26,25</t>
+          <t>-12,5; 23,71</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,01</t>
+          <t>-16,15; 19,43</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 16,68</t>
+          <t>-19,19; 15,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,24</t>
+          <t>-1,46; 10,26</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,5</t>
+          <t>-7,91; 5,71</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,62</t>
+          <t>0,49; 12,2</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,82</t>
+          <t>-7,49; 5,91</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 30,47</t>
+          <t>-19,19; 27,63</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 23,64</t>
+          <t>-23,65; 22,29</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 12,08</t>
+          <t>-1,43; 12,04</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 6,43</t>
+          <t>-8,65; 6,65</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,34</t>
+          <t>0,55; 15,07</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 7,01</t>
+          <t>-8,49; 7,17</t>
         </is>
       </c>
     </row>
